--- a/to - do _ projet cloud s5.xlsx
+++ b/to - do _ projet cloud s5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\fournisseur_identite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E4ED8-A79B-46A0-AC0D-573687DB13F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9030A730-EDC1-464D-8D54-465F9D7AFF1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
   <si>
     <t>ETU2500</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>ETU2455</t>
-  </si>
-  <si>
-    <t>ETU1862</t>
-  </si>
-  <si>
-    <t>ETU1885</t>
   </si>
   <si>
     <t xml:space="preserve">Catégorie </t>
@@ -64,9 +58,6 @@
     <t>base</t>
   </si>
   <si>
-    <t>ETU1779</t>
-  </si>
-  <si>
     <t xml:space="preserve">données de test </t>
   </si>
   <si>
@@ -82,319 +73,7 @@
     <t xml:space="preserve">liste </t>
   </si>
   <si>
-    <t xml:space="preserve">web service : CRUD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BoiteVitesse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">création classe BoiteVitesse : int id, String designation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Categorie </t>
-  </si>
-  <si>
-    <t>création table categorie : id ( int ), nom ( varchar )</t>
-  </si>
-  <si>
-    <t>création classe Categorie : int id, String nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modele </t>
-  </si>
-  <si>
-    <t>création table modele : id ( int ), nom ( varchar ), id_marque ( foreign key table marque )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CaracteristiqueModele </t>
-  </si>
-  <si>
-    <t>création table caracteristique_modele : id_modele ( fk table modele ), id_categorie ( fk table categorie ), id_type_vitesse ( fk table boite_vitesse ), id_energie  ( fk table type_energie )</t>
-  </si>
-  <si>
-    <t>CaracteristiqueModele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">création classe CaracteristiqueModele : Categorie categorie, BoiteVitesse boiteVitesse, TypeEnergie typeEnergie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">création classe Modele : int id, String nom, Marque marque, List&lt;CaracteristiqueModele&gt; </t>
-  </si>
-  <si>
-    <t>détails modele : findById</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recherche multicritère : nom, marque </t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>création table admin : id ( int ), nom ( varchar ), email ( varchar ), password ( varchar )</t>
-  </si>
-  <si>
-    <t>création classe Admin : int id, String nom, String email, String password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin </t>
-  </si>
-  <si>
-    <t>login : fonction find ( email, password )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web service login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back Office </t>
-  </si>
-  <si>
-    <t xml:space="preserve">page de login </t>
-  </si>
-  <si>
-    <t>affichage</t>
-  </si>
-  <si>
-    <t>ETU1748</t>
-  </si>
-  <si>
-    <t>liste des modèles + pagination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajout de modèle </t>
-  </si>
-  <si>
-    <t>détails modèle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste des marques </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajout de marque </t>
-  </si>
-  <si>
-    <t xml:space="preserve">détails marque    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste des annonces </t>
-  </si>
-  <si>
-    <t xml:space="preserve">détails annonce </t>
-  </si>
-  <si>
-    <t>intégration</t>
-  </si>
-  <si>
-    <t>Lieu</t>
-  </si>
-  <si>
-    <t>création table lieu : id ( int ), nom_lieu ( text )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lieu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">création classe Lieu : int id, String nomLieu </t>
-  </si>
-  <si>
-    <t>web service lieu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voiture </t>
-  </si>
-  <si>
-    <t>création table voiture : id ( int ), nombre_place ( int ), nombre_porte ( int ), kilometrage ( decimal ), id_marque ( fk table marque ), id_modele ( fk table modele ), id_energie ( fk table type_energie ), id_categorie ( fk table categorie ), id_vitesse ( fk table boite_vitesse )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">classe Voiture : int id, int nombrePlace, int nombrePorte, double kilometrage, Marque marque, Modele modele, Categorie categorie, TypeEnergie energie,  BoiteVitesse vitesse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annonce </t>
-  </si>
-  <si>
-    <t xml:space="preserve">table annonce : id ( int ), date_heure ( timestamp ), titre ( text ), description ( text ), prix_vente ( decimal ), lieu ( fk table lieu ), proprietaire ( text not null ), id_voiture ( fk table voiture ), etat ( int -&gt; 0 : en attente; 10 : validé; -10 : refusé ), statut ( int -&gt; 0 : disponible; 10 : vendu ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DetailsAnnonce </t>
-  </si>
-  <si>
-    <t>table details_annonce : id_annonce, image1 ( bytea ), image2 ( bytea ), image3 ( bytea ), image4 ( bytea )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validation Annonce </t>
-  </si>
-  <si>
-    <t>table validation_annonce : date_heure_validation ( timestamp ), id_admin ( fk table admin )</t>
-  </si>
-  <si>
-    <t>classe DetailsAnnonce : byte [] image1, byte [] image2, byte [] image3, byte [] image4</t>
-  </si>
-  <si>
-    <t>classe Annonce : int id, Timestamp dateHeure, String titre, String description, double prixVente, Lieu lieu, String idProprietaire, Voiture voiture, int etat, int statut, DetailsAnnonce details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste annonce </t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste annonce validés </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre annonce </t>
-  </si>
-  <si>
-    <t>création table favori_annonce : id_annonce ( fk table annonce ) , id_utilisateur ( text )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertion favori_annonce </t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste des favoris par utilisateur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertion annonce </t>
-  </si>
-  <si>
-    <t xml:space="preserve">modification statut annonce </t>
-  </si>
-  <si>
-    <t xml:space="preserve">validation annonce -&gt; update etat @ table annonce + insert @ table validation_annonce </t>
-  </si>
-  <si>
-    <t>recherche multicritère : nom, marque, modèle, type_energie, boite_vitesse, lieu, prix ( min - max ), kilometrage ( min - max ), date annonce ( début - fin )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web service annonce </t>
-  </si>
-  <si>
     <t xml:space="preserve">Utilisateur </t>
-  </si>
-  <si>
-    <t>création document : utilisateur ( id, nom_complet, date_naissance, email, password )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">création classe Utilisateur : ObjectId id, String nomComplet, String email, String password, Date dateNaissance </t>
-  </si>
-  <si>
-    <t>insertion utilisateur</t>
-  </si>
-  <si>
-    <t>login utilisateur -&gt; find utilisateur ( email, password )</t>
-  </si>
-  <si>
-    <t>web service utilisateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conversation </t>
-  </si>
-  <si>
-    <t>création document : conversation ( id, participants : [] )</t>
-  </si>
-  <si>
-    <t>création classe Conversation : ObjectId id, List&lt;ObjectId&gt; participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertion conversation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste conversation par utilisateur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">web service conversation : insertion, liste conversation par utilisateur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Message </t>
-  </si>
-  <si>
-    <t>création document : message ( id, id_conversation, id_sender, contenu_message, date_heure )</t>
-  </si>
-  <si>
-    <t>création classe Message : ObjectId id, ObjectId idConversation, ObjectId idSender, String contenuMessage, Timestam dateHeure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertion message </t>
-  </si>
-  <si>
-    <t>liste message par conversation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web service message : insertion, liste message par conversation </t>
-  </si>
-  <si>
-    <t>FrontOffice Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maquette design front office </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FrontOffice Mobile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">maquette design mobile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">page d'accueil </t>
-  </si>
-  <si>
-    <t xml:space="preserve">page d'inscription </t>
-  </si>
-  <si>
-    <t xml:space="preserve">page de menu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">formulaire d'insertion d'annonce </t>
-  </si>
-  <si>
-    <t xml:space="preserve">intégration login </t>
-  </si>
-  <si>
-    <t>intégration inscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intégration annonce : ajout, liste, détails </t>
-  </si>
-  <si>
-    <t xml:space="preserve">envoi d'images </t>
-  </si>
-  <si>
-    <t xml:space="preserve">export apk </t>
-  </si>
-  <si>
-    <t>Déploiement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">déploiement web service mobile </t>
-  </si>
-  <si>
-    <t>déploiement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">déploiement web service front office </t>
-  </si>
-  <si>
-    <t>déploiement back office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Front office web </t>
-  </si>
-  <si>
-    <t xml:space="preserve">liste des conversations </t>
-  </si>
-  <si>
-    <t xml:space="preserve">page de message </t>
-  </si>
-  <si>
-    <t>page de login (check compatiblité + rendu + résolution erreur)</t>
-  </si>
-  <si>
-    <t>liste des conversations (check compatiblité + rendu + résolution erreur)</t>
-  </si>
-  <si>
-    <t>page de message (check compatiblité + rendu + résolution erreur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pop - up : contacter utilisateur </t>
-  </si>
-  <si>
-    <t>liste des favoris</t>
   </si>
   <si>
     <t>Fifaliana</t>
@@ -468,6 +147,39 @@
   <si>
     <t xml:space="preserve">Creation controller : InscriptionController </t>
   </si>
+  <si>
+    <t>TentativeMdpFailed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">création classe TentativeMdpFailed </t>
+  </si>
+  <si>
+    <t>TentativePinFailed</t>
+  </si>
+  <si>
+    <t>création classeTentativePinFailed</t>
+  </si>
+  <si>
+    <t>création classe TentativePinFailedRepository</t>
+  </si>
+  <si>
+    <t>création classe TentativeMdpFailedRepository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AuthService </t>
+  </si>
+  <si>
+    <t>Creation classe AuthService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentification </t>
+  </si>
+  <si>
+    <t>Creation classe AuthController</t>
+  </si>
+  <si>
+    <t>Creation classe UtilisateurTokenController</t>
+  </si>
 </sst>
 </file>
 
@@ -476,7 +188,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,12 +218,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
       <family val="2"/>
@@ -564,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -598,15 +304,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -925,18 +622,18 @@
   </sheetPr>
   <dimension ref="A1:Z1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.140625" style="16" customWidth="1"/>
-    <col min="3" max="4" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="18.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.140625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -976,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1005,10 +702,10 @@
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1037,10 +734,10 @@
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1097,28 +794,28 @@
     </row>
     <row r="6" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1141,16 +838,16 @@
     </row>
     <row r="7" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E7" s="11">
         <v>5</v>
@@ -1187,16 +884,16 @@
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="E8" s="11">
         <v>10</v>
@@ -1233,16 +930,16 @@
     </row>
     <row r="9" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E9" s="11">
         <v>5</v>
@@ -1277,18 +974,18 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" s="15" customFormat="1" ht="18.75" customHeight="1">
+    <row r="10" spans="1:26" s="12" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E10" s="11">
         <v>5</v>
@@ -1325,16 +1022,16 @@
     </row>
     <row r="11" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E11" s="11">
         <v>10</v>
@@ -1371,16 +1068,16 @@
     </row>
     <row r="12" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E12" s="11">
         <v>10</v>
@@ -1417,16 +1114,16 @@
     </row>
     <row r="13" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E13" s="11">
         <v>10</v>
@@ -1463,13 +1160,13 @@
     </row>
     <row r="14" spans="1:26" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
@@ -1507,15 +1204,15 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" s="15" customFormat="1" ht="17.25" customHeight="1">
+    <row r="15" spans="1:26" s="12" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>0</v>
@@ -1555,13 +1252,13 @@
     </row>
     <row r="16" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>2</v>
@@ -1601,13 +1298,13 @@
     </row>
     <row r="17" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2</v>
@@ -1647,13 +1344,13 @@
     </row>
     <row r="18" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>2</v>
@@ -1693,16 +1390,16 @@
     </row>
     <row r="19" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E19" s="11">
         <v>10</v>
@@ -1739,16 +1436,16 @@
     </row>
     <row r="20" spans="1:26" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E20" s="11">
         <v>10</v>
@@ -1785,13 +1482,13 @@
     </row>
     <row r="21" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>2</v>
@@ -1831,10 +1528,10 @@
     </row>
     <row r="22" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>13</v>
@@ -1877,10 +1574,10 @@
     </row>
     <row r="23" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>13</v>
@@ -1923,16 +1620,16 @@
     </row>
     <row r="24" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E24" s="11">
         <v>10</v>
@@ -1967,18 +1664,18 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
+    <row r="25" spans="1:26" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E25" s="11">
         <v>10</v>
@@ -2013,18 +1710,18 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
+    <row r="26" spans="1:26" s="12" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="10" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E26" s="11">
         <v>10</v>
@@ -2033,11 +1730,11 @@
         <v>10</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G26:G27" si="4">E26-F26</f>
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H26:H27" si="5">F26/(F26+G26)</f>
         <v>1</v>
       </c>
       <c r="I26" s="2"/>
@@ -2059,18 +1756,18 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
+    <row r="27" spans="1:26" s="12" customFormat="1" ht="33" customHeight="1">
       <c r="A27" s="10" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E27" s="11">
         <v>10</v>
@@ -2079,11 +1776,11 @@
         <v>10</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I27" s="2"/>
@@ -2107,16 +1804,16 @@
     </row>
     <row r="28" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E28" s="11">
         <v>10</v>
@@ -2151,31 +1848,31 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" s="1" customFormat="1" ht="43.5" customHeight="1">
+    <row r="29" spans="1:26" s="12" customFormat="1" ht="32.25" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E29" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F29" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G29" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G29" si="6">E29-F29</f>
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H29" si="7">F29/(F29+G29)</f>
         <v>1</v>
       </c>
       <c r="I29" s="2"/>
@@ -2197,31 +1894,31 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
+    <row r="30" spans="1:26" s="12" customFormat="1" ht="32.25" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E30" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F30" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G30" si="8">E30-F30</f>
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H30" si="9">F30/(F30+G30)</f>
         <v>1</v>
       </c>
       <c r="I30" s="2"/>
@@ -2243,33 +1940,15 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A31" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="11">
-        <v>10</v>
-      </c>
-      <c r="F31" s="11">
-        <v>10</v>
-      </c>
-      <c r="G31" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+    <row r="31" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2289,33 +1968,15 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A32" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="11">
-        <v>10</v>
-      </c>
-      <c r="F32" s="11">
-        <v>10</v>
-      </c>
-      <c r="G32" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+    <row r="32" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -2335,33 +1996,15 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="11">
-        <v>10</v>
-      </c>
-      <c r="F33" s="11">
-        <v>10</v>
-      </c>
-      <c r="G33" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+    <row r="33" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -2381,33 +2024,15 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="11">
-        <v>10</v>
-      </c>
-      <c r="F34" s="11">
-        <v>10</v>
-      </c>
-      <c r="G34" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+    <row r="34" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2427,33 +2052,15 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="11">
-        <v>10</v>
-      </c>
-      <c r="F35" s="11">
-        <v>10</v>
-      </c>
-      <c r="G35" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+    <row r="35" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2473,33 +2080,15 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="11">
-        <v>10</v>
-      </c>
-      <c r="F36" s="11">
-        <v>10</v>
-      </c>
-      <c r="G36" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+    <row r="36" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2519,33 +2108,15 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="11">
-        <v>10</v>
-      </c>
-      <c r="F37" s="11">
-        <v>10</v>
-      </c>
-      <c r="G37" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+    <row r="37" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -2565,33 +2136,15 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="11">
-        <v>10</v>
-      </c>
-      <c r="F38" s="11">
-        <v>10</v>
-      </c>
-      <c r="G38" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+    <row r="38" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2611,33 +2164,15 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A39" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="11">
-        <v>10</v>
-      </c>
-      <c r="F39" s="11">
-        <v>10</v>
-      </c>
-      <c r="G39" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
-        <f t="shared" ref="H39:H70" si="4">F39/(F39+G39)</f>
-        <v>1</v>
-      </c>
+    <row r="39" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -2657,33 +2192,15 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A40" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="11">
-        <v>10</v>
-      </c>
-      <c r="F40" s="11">
-        <v>10</v>
-      </c>
-      <c r="G40" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="40" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -2703,33 +2220,15 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A41" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="11">
-        <v>10</v>
-      </c>
-      <c r="F41" s="11">
-        <v>10</v>
-      </c>
-      <c r="G41" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="41" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="4"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2749,33 +2248,15 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A42" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="11">
-        <v>10</v>
-      </c>
-      <c r="F42" s="11">
-        <v>10</v>
-      </c>
-      <c r="G42" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="42" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -2795,32 +2276,15 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="11">
-        <v>35</v>
-      </c>
-      <c r="F43" s="11">
-        <v>60</v>
-      </c>
-      <c r="G43" s="11">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="43" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="4"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -2840,32 +2304,15 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="11">
-        <v>35</v>
-      </c>
-      <c r="F44" s="11">
-        <v>35</v>
-      </c>
-      <c r="G44" s="11">
-        <v>20</v>
-      </c>
-      <c r="H44" s="4">
-        <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
-      </c>
+    <row r="44" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="4"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -2885,32 +2332,15 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="11">
-        <v>35</v>
-      </c>
-      <c r="F45" s="11">
-        <v>35</v>
-      </c>
-      <c r="G45" s="11">
-        <v>20</v>
-      </c>
-      <c r="H45" s="4">
-        <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
-      </c>
+    <row r="45" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="4"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -2930,32 +2360,15 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="11">
-        <v>35</v>
-      </c>
-      <c r="F46" s="11">
-        <v>35</v>
-      </c>
-      <c r="G46" s="11">
-        <v>20</v>
-      </c>
-      <c r="H46" s="4">
-        <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
-      </c>
+    <row r="46" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="4"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -2975,32 +2388,15 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="11">
-        <v>35</v>
-      </c>
-      <c r="F47" s="11">
-        <v>35</v>
-      </c>
-      <c r="G47" s="11">
-        <v>20</v>
-      </c>
-      <c r="H47" s="4">
-        <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
-      </c>
+    <row r="47" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="4"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -3020,32 +2416,15 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="11">
-        <v>35</v>
-      </c>
-      <c r="F48" s="11">
-        <v>35</v>
-      </c>
-      <c r="G48" s="11">
-        <v>20</v>
-      </c>
-      <c r="H48" s="4">
-        <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
-      </c>
+    <row r="48" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="4"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -3065,32 +2444,15 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="11">
-        <v>35</v>
-      </c>
-      <c r="F49" s="11">
-        <v>35</v>
-      </c>
-      <c r="G49" s="11">
-        <v>20</v>
-      </c>
-      <c r="H49" s="4">
-        <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
-      </c>
+    <row r="49" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="4"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -3110,32 +2472,15 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="11">
-        <v>35</v>
-      </c>
-      <c r="F50" s="11">
-        <v>35</v>
-      </c>
-      <c r="G50" s="11">
-        <v>20</v>
-      </c>
-      <c r="H50" s="4">
-        <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
-      </c>
+    <row r="50" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="4"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -3155,32 +2500,15 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="11">
-        <v>35</v>
-      </c>
-      <c r="F51" s="11">
-        <v>35</v>
-      </c>
-      <c r="G51" s="11">
-        <v>20</v>
-      </c>
-      <c r="H51" s="4">
-        <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
-      </c>
+    <row r="51" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="4"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -3200,32 +2528,15 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="11">
-        <v>35</v>
-      </c>
-      <c r="F52" s="11">
-        <v>20</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="52" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="4"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -3245,33 +2556,15 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="11">
-        <v>35</v>
-      </c>
-      <c r="F53" s="11">
-        <v>5</v>
-      </c>
-      <c r="G53" s="11">
-        <f t="shared" ref="G53:G84" si="5">E53-F53</f>
-        <v>30</v>
-      </c>
-      <c r="H53" s="4">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
+    <row r="53" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="4"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -3291,33 +2584,15 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="11">
-        <v>35</v>
-      </c>
-      <c r="F54" s="11">
-        <v>5</v>
-      </c>
-      <c r="G54" s="11">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="H54" s="4">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
+    <row r="54" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="4"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -3337,33 +2612,15 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="11">
-        <v>35</v>
-      </c>
-      <c r="F55" s="11">
-        <v>5</v>
-      </c>
-      <c r="G55" s="11">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="H55" s="4">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
+    <row r="55" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="4"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -3383,33 +2640,15 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="11">
-        <v>35</v>
-      </c>
-      <c r="F56" s="11">
-        <v>5</v>
-      </c>
-      <c r="G56" s="11">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="H56" s="4">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
+    <row r="56" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="4"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -3429,33 +2668,15 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="11">
-        <v>35</v>
-      </c>
-      <c r="F57" s="11">
-        <v>5</v>
-      </c>
-      <c r="G57" s="11">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="H57" s="4">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
+    <row r="57" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="4"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -3475,33 +2696,15 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="11">
-        <v>35</v>
-      </c>
-      <c r="F58" s="11">
-        <v>5</v>
-      </c>
-      <c r="G58" s="11">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="H58" s="4">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
+    <row r="58" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="4"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -3521,33 +2724,15 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="11">
-        <v>35</v>
-      </c>
-      <c r="F59" s="11">
-        <v>5</v>
-      </c>
-      <c r="G59" s="11">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="H59" s="4">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
+    <row r="59" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="4"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
@@ -3567,33 +2752,15 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E60" s="11">
-        <v>35</v>
-      </c>
-      <c r="F60" s="11">
-        <v>5</v>
-      </c>
-      <c r="G60" s="11">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="H60" s="4">
-        <f t="shared" si="4"/>
-        <v>0.14285714285714285</v>
-      </c>
+    <row r="60" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="4"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -3613,33 +2780,15 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="11">
-        <v>5</v>
-      </c>
-      <c r="F61" s="11">
-        <v>5</v>
-      </c>
-      <c r="G61" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="61" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="4"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -3659,33 +2808,15 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="11">
-        <v>10</v>
-      </c>
-      <c r="F62" s="11">
-        <v>10</v>
-      </c>
-      <c r="G62" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="62" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="4"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -3705,33 +2836,15 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A63" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="11">
-        <v>5</v>
-      </c>
-      <c r="F63" s="11">
-        <v>5</v>
-      </c>
-      <c r="G63" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="63" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="4"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
@@ -3751,33 +2864,15 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="11">
-        <v>10</v>
-      </c>
-      <c r="F64" s="11">
-        <v>10</v>
-      </c>
-      <c r="G64" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="64" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="4"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -3797,33 +2892,15 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="11">
-        <v>10</v>
-      </c>
-      <c r="F65" s="11">
-        <v>10</v>
-      </c>
-      <c r="G65" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="65" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="4"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -3843,33 +2920,15 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="11">
-        <v>15</v>
-      </c>
-      <c r="F66" s="11">
-        <v>15</v>
-      </c>
-      <c r="G66" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="66" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="4"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -3889,33 +2948,15 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" s="1" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="11">
-        <v>10</v>
-      </c>
-      <c r="F67" s="11">
-        <v>10</v>
-      </c>
-      <c r="G67" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="67" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="4"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -3935,33 +2976,15 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="11">
-        <v>10</v>
-      </c>
-      <c r="F68" s="11">
-        <v>10</v>
-      </c>
-      <c r="G68" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="68" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="4"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -3981,33 +3004,15 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="11">
-        <v>10</v>
-      </c>
-      <c r="F69" s="11">
-        <v>10</v>
-      </c>
-      <c r="G69" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="69" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="4"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -4027,33 +3032,15 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="11">
-        <v>5</v>
-      </c>
-      <c r="F70" s="11">
-        <v>5</v>
-      </c>
-      <c r="G70" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
+    <row r="70" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="4"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -4073,33 +3060,15 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A71" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="11">
-        <v>5</v>
-      </c>
-      <c r="F71" s="11">
-        <v>5</v>
-      </c>
-      <c r="G71" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="4">
-        <f t="shared" ref="H71:H102" si="6">F71/(F71+G71)</f>
-        <v>1</v>
-      </c>
+    <row r="71" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -4119,33 +3088,15 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="11">
-        <v>5</v>
-      </c>
-      <c r="F72" s="11">
-        <v>5</v>
-      </c>
-      <c r="G72" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="72" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="4"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -4165,33 +3116,15 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="11">
-        <v>10</v>
-      </c>
-      <c r="F73" s="11">
-        <v>10</v>
-      </c>
-      <c r="G73" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="73" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="4"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -4211,33 +3144,15 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A74" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="11">
-        <v>10</v>
-      </c>
-      <c r="F74" s="11">
-        <v>10</v>
-      </c>
-      <c r="G74" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="74" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="4"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -4257,33 +3172,15 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="11">
-        <v>10</v>
-      </c>
-      <c r="F75" s="11">
-        <v>10</v>
-      </c>
-      <c r="G75" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="75" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="4"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -4303,33 +3200,15 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A76" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="11">
-        <v>10</v>
-      </c>
-      <c r="F76" s="11">
-        <v>10</v>
-      </c>
-      <c r="G76" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="76" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="4"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -4349,33 +3228,15 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A77" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="11">
-        <v>10</v>
-      </c>
-      <c r="F77" s="11">
-        <v>10</v>
-      </c>
-      <c r="G77" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="77" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="4"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -4395,33 +3256,15 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A78" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="11">
-        <v>10</v>
-      </c>
-      <c r="F78" s="11">
-        <v>10</v>
-      </c>
-      <c r="G78" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="78" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="4"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -4441,33 +3284,15 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A79" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="11">
-        <v>10</v>
-      </c>
-      <c r="F79" s="11">
-        <v>10</v>
-      </c>
-      <c r="G79" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="79" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="4"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -4487,33 +3312,15 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A80" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="11">
-        <v>10</v>
-      </c>
-      <c r="F80" s="11">
-        <v>10</v>
-      </c>
-      <c r="G80" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="80" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="4"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -4533,33 +3340,15 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A81" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="11">
-        <v>10</v>
-      </c>
-      <c r="F81" s="11">
-        <v>10</v>
-      </c>
-      <c r="G81" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="81" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="4"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -4579,33 +3368,15 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A82" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="11">
-        <v>10</v>
-      </c>
-      <c r="F82" s="11">
-        <v>10</v>
-      </c>
-      <c r="G82" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="82" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="4"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -4625,33 +3396,15 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A83" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="11">
-        <v>10</v>
-      </c>
-      <c r="F83" s="11">
-        <v>10</v>
-      </c>
-      <c r="G83" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="83" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="4"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -4671,33 +3424,15 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A84" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E84" s="11">
-        <v>25</v>
-      </c>
-      <c r="F84" s="11">
-        <v>25</v>
-      </c>
-      <c r="G84" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="84" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="4"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -4717,33 +3452,15 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A85" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E85" s="11">
-        <v>15</v>
-      </c>
-      <c r="F85" s="11">
-        <v>15</v>
-      </c>
-      <c r="G85" s="11">
-        <f t="shared" ref="G85:G116" si="7">E85-F85</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="85" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -4763,33 +3480,15 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A86" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="11">
-        <v>15</v>
-      </c>
-      <c r="F86" s="11">
-        <v>15</v>
-      </c>
-      <c r="G86" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="86" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -4809,33 +3508,15 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A87" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="11">
-        <v>15</v>
-      </c>
-      <c r="F87" s="11">
-        <v>15</v>
-      </c>
-      <c r="G87" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="87" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="4"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -4855,33 +3536,15 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A88" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="11">
-        <v>15</v>
-      </c>
-      <c r="F88" s="11">
-        <v>15</v>
-      </c>
-      <c r="G88" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="88" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="4"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -4901,33 +3564,15 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A89" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="11">
-        <v>15</v>
-      </c>
-      <c r="F89" s="11">
-        <v>15</v>
-      </c>
-      <c r="G89" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="89" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="4"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -4947,33 +3592,15 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A90" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="11">
-        <v>15</v>
-      </c>
-      <c r="F90" s="11">
-        <v>15</v>
-      </c>
-      <c r="G90" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="90" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="4"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
@@ -4993,33 +3620,15 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A91" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="11">
-        <v>15</v>
-      </c>
-      <c r="F91" s="11">
-        <v>15</v>
-      </c>
-      <c r="G91" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="91" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="4"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -5039,33 +3648,15 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A92" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="11">
-        <v>15</v>
-      </c>
-      <c r="F92" s="11">
-        <v>15</v>
-      </c>
-      <c r="G92" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="92" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="4"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -5085,33 +3676,15 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A93" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="11">
-        <v>15</v>
-      </c>
-      <c r="F93" s="11">
-        <v>15</v>
-      </c>
-      <c r="G93" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="93" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="4"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -5131,33 +3704,15 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A94" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="11">
-        <v>15</v>
-      </c>
-      <c r="F94" s="11">
-        <v>15</v>
-      </c>
-      <c r="G94" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="94" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="4"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
@@ -5177,33 +3732,15 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A95" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="11">
-        <v>15</v>
-      </c>
-      <c r="F95" s="11">
-        <v>15</v>
-      </c>
-      <c r="G95" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="95" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="4"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -5223,33 +3760,15 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A96" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="11">
-        <v>15</v>
-      </c>
-      <c r="F96" s="11">
-        <v>15</v>
-      </c>
-      <c r="G96" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="96" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="4"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -5269,33 +3788,15 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A97" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="11">
-        <v>15</v>
-      </c>
-      <c r="F97" s="11">
-        <v>15</v>
-      </c>
-      <c r="G97" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="97" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="4"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
@@ -5315,33 +3816,15 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A98" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="11">
-        <v>15</v>
-      </c>
-      <c r="F98" s="11">
-        <v>15</v>
-      </c>
-      <c r="G98" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="98" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="4"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -5361,33 +3844,15 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A99" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="11">
-        <v>15</v>
-      </c>
-      <c r="F99" s="11">
-        <v>15</v>
-      </c>
-      <c r="G99" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H99" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="99" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="4"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -5407,33 +3872,15 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A100" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="11">
-        <v>15</v>
-      </c>
-      <c r="F100" s="11">
-        <v>15</v>
-      </c>
-      <c r="G100" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H100" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="100" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="4"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -5453,33 +3900,15 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A101" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="11">
-        <v>90</v>
-      </c>
-      <c r="F101" s="11">
-        <v>90</v>
-      </c>
-      <c r="G101" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="101" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="4"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
@@ -5499,33 +3928,15 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A102" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="11">
-        <v>90</v>
-      </c>
-      <c r="F102" s="11">
-        <v>90</v>
-      </c>
-      <c r="G102" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="4">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
+    <row r="102" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="4"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -5545,33 +3956,15 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A103" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103" s="11">
-        <v>20</v>
-      </c>
-      <c r="F103" s="11">
-        <v>20</v>
-      </c>
-      <c r="G103" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H103" s="4">
-        <f t="shared" ref="H103:H134" si="8">F103/(F103+G103)</f>
-        <v>1</v>
-      </c>
+    <row r="103" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="4"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -5591,33 +3984,15 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A104" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E104" s="11">
-        <v>20</v>
-      </c>
-      <c r="F104" s="11">
-        <v>20</v>
-      </c>
-      <c r="G104" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H104" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="104" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="4"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -5637,33 +4012,15 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A105" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E105" s="11">
-        <v>20</v>
-      </c>
-      <c r="F105" s="11">
-        <v>20</v>
-      </c>
-      <c r="G105" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H105" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="105" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="4"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -5683,33 +4040,15 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A106" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="11">
-        <v>20</v>
-      </c>
-      <c r="F106" s="11">
-        <v>20</v>
-      </c>
-      <c r="G106" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H106" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="106" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="4"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -5729,33 +4068,15 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A107" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="11">
-        <v>20</v>
-      </c>
-      <c r="F107" s="11">
-        <v>20</v>
-      </c>
-      <c r="G107" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="107" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="4"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
@@ -5775,33 +4096,15 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A108" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E108" s="11">
-        <v>60</v>
-      </c>
-      <c r="F108" s="11">
-        <v>60</v>
-      </c>
-      <c r="G108" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="108" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="4"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -5821,33 +4124,15 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A109" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109" s="11">
-        <v>15</v>
-      </c>
-      <c r="F109" s="11">
-        <v>15</v>
-      </c>
-      <c r="G109" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H109" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="109" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="4"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -5867,33 +4152,15 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A110" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E110" s="11">
-        <v>15</v>
-      </c>
-      <c r="F110" s="11">
-        <v>15</v>
-      </c>
-      <c r="G110" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H110" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="110" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="4"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
@@ -5913,33 +4180,15 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A111" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E111" s="11">
-        <v>60</v>
-      </c>
-      <c r="F111" s="11">
-        <v>60</v>
-      </c>
-      <c r="G111" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="111" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="4"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
@@ -5959,33 +4208,15 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A112" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E112" s="11">
-        <v>60</v>
-      </c>
-      <c r="F112" s="11">
-        <v>60</v>
-      </c>
-      <c r="G112" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H112" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="112" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="4"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -6005,33 +4236,15 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A113" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E113" s="11">
-        <v>45</v>
-      </c>
-      <c r="F113" s="11">
-        <v>45</v>
-      </c>
-      <c r="G113" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="113" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="4"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -6051,33 +4264,15 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E114" s="11">
-        <v>60</v>
-      </c>
-      <c r="F114" s="11">
-        <v>60</v>
-      </c>
-      <c r="G114" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H114" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="114" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="4"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
@@ -6097,33 +4292,15 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E115" s="11">
-        <v>60</v>
-      </c>
-      <c r="F115" s="11">
-        <v>60</v>
-      </c>
-      <c r="G115" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H115" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="115" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="4"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -6143,33 +4320,15 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A116" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116" s="11">
-        <v>20</v>
-      </c>
-      <c r="F116" s="11">
-        <v>20</v>
-      </c>
-      <c r="G116" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H116" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="116" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="4"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
@@ -6189,33 +4348,15 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A117" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E117" s="11">
-        <v>35</v>
-      </c>
-      <c r="F117" s="11">
-        <v>25</v>
-      </c>
-      <c r="G117" s="11">
-        <f t="shared" ref="G117:G148" si="9">E117-F117</f>
-        <v>10</v>
-      </c>
-      <c r="H117" s="4">
-        <f t="shared" si="8"/>
-        <v>0.7142857142857143</v>
-      </c>
+    <row r="117" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="4"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
@@ -6235,33 +4376,15 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A118" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E118" s="11">
-        <v>35</v>
-      </c>
-      <c r="F118" s="11">
-        <v>35</v>
-      </c>
-      <c r="G118" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H118" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="118" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="4"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -6281,33 +4404,15 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A119" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E119" s="11">
-        <v>35</v>
-      </c>
-      <c r="F119" s="11">
-        <v>35</v>
-      </c>
-      <c r="G119" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H119" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="119" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="4"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
@@ -6327,33 +4432,15 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A120" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E120" s="13">
-        <v>30</v>
-      </c>
-      <c r="F120" s="11">
-        <v>5</v>
-      </c>
-      <c r="G120" s="11">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="H120" s="4">
-        <f t="shared" si="8"/>
-        <v>0.16666666666666666</v>
-      </c>
+    <row r="120" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="4"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
@@ -6373,33 +4460,15 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A121" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E121" s="13">
-        <v>30</v>
-      </c>
-      <c r="F121" s="11">
-        <v>5</v>
-      </c>
-      <c r="G121" s="11">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="H121" s="4">
-        <f t="shared" si="8"/>
-        <v>0.16666666666666666</v>
-      </c>
+    <row r="121" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="4"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
@@ -6419,33 +4488,15 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A122" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E122" s="13">
-        <v>30</v>
-      </c>
-      <c r="F122" s="11">
-        <v>5</v>
-      </c>
-      <c r="G122" s="11">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="H122" s="4">
-        <f t="shared" si="8"/>
-        <v>0.16666666666666666</v>
-      </c>
+    <row r="122" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="4"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
@@ -6465,32 +4516,15 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A123" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E123" s="13">
-        <v>5</v>
-      </c>
-      <c r="F123" s="11">
-        <v>35</v>
-      </c>
-      <c r="G123" s="11">
-        <v>20</v>
-      </c>
-      <c r="H123" s="4">
-        <f t="shared" si="8"/>
-        <v>0.63636363636363635</v>
-      </c>
+    <row r="123" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="4"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
@@ -6510,32 +4544,15 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A124" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E124" s="13">
-        <v>5</v>
-      </c>
-      <c r="F124" s="11">
-        <v>20</v>
-      </c>
-      <c r="G124" s="11">
-        <v>0</v>
-      </c>
-      <c r="H124" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="124" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="4"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
@@ -6555,32 +4572,15 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A125" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E125" s="13">
-        <v>5</v>
-      </c>
-      <c r="F125" s="11">
-        <v>10</v>
-      </c>
-      <c r="G125" s="11">
-        <v>0</v>
-      </c>
-      <c r="H125" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="125" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="4"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
@@ -6600,33 +4600,15 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A126" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="11">
-        <v>35</v>
-      </c>
-      <c r="F126" s="11">
-        <v>35</v>
-      </c>
-      <c r="G126" s="11">
-        <f>E126-F126</f>
-        <v>0</v>
-      </c>
-      <c r="H126" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="126" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="4"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
@@ -6646,33 +4628,15 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A127" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E127" s="11">
-        <v>35</v>
-      </c>
-      <c r="F127" s="11">
-        <v>35</v>
-      </c>
-      <c r="G127" s="11">
-        <f>E127-F127</f>
-        <v>0</v>
-      </c>
-      <c r="H127" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="127" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="4"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
@@ -6692,33 +4656,15 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A128" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="11">
-        <v>35</v>
-      </c>
-      <c r="F128" s="11">
-        <v>35</v>
-      </c>
-      <c r="G128" s="11">
-        <f>E128-F128</f>
-        <v>0</v>
-      </c>
-      <c r="H128" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="128" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="4"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
@@ -6738,33 +4684,15 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A129" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" s="11">
-        <v>35</v>
-      </c>
-      <c r="F129" s="11">
-        <v>35</v>
-      </c>
-      <c r="G129" s="11">
-        <f>E129-F129</f>
-        <v>0</v>
-      </c>
-      <c r="H129" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="129" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="4"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
@@ -6784,33 +4712,15 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A130" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="11">
-        <v>35</v>
-      </c>
-      <c r="F130" s="11">
-        <v>35</v>
-      </c>
-      <c r="G130" s="11">
-        <f>E130-F130</f>
-        <v>0</v>
-      </c>
-      <c r="H130" s="4">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+    <row r="130" spans="1:26" s="12" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="4"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
